--- a/Excel/sucess.xlsx
+++ b/Excel/sucess.xlsx
@@ -1,37 +1,392 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
-  <workbookProtection/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\oF\Python\Excel\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="27870" windowHeight="12975"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="112">
+  <si>
+    <t>y = -1E-25*np.power(index_array_1,6) + 1E-22*np.power(index_array_1,5) - 6E-20*np.power(index_array_1,4) + 4E-17*np.power(index_array_1,3) - 2E-14*np.power(index_array_1,2) + 0.0001*np.power(index_array_1,1) + 0.1958</t>
+  </si>
+  <si>
+    <t>y = -2E-24*np.power(index_array_2,6) + 1E-21*np.power(index_array_2,5) + 3E-19*np.power(index_array_2,4) - 3E-16*np.power(index_array_2,3) + 2E-14*np.power(index_array_2,2) + 0.0002*np.power(index_array_2,1) + 0.2419</t>
+  </si>
+  <si>
+    <t>y = 8E-24*np.power(index_array_3,6) - 8E-21*np.power(index_array_3,5) + 2E-18*np.power(index_array_3,4) - 2E-16*np.power(index_array_3,3) - 5E-14*np.power(index_array_3,2) + 0.0003*np.power(index_array_3,1) + 0.3004</t>
+  </si>
+  <si>
+    <t>y = 3E-24*np.power(index_array_4,6) + 5E-21*np.power(index_array_4,5) + 1E-18*np.power(index_array_4,4) - 8E-16*np.power(index_array_4,3) + 2E-13*np.power(index_array_4,2) + 0.0004*np.power(index_array_4,1) + 0.357</t>
+  </si>
+  <si>
+    <t>y = -1E-22*np.power(index_array_5,6) + 9E-20*np.power(index_array_5,5) - 9E-18*np.power(index_array_5,4) - 2E-15*np.power(index_array_5,3) + 6E-13*np.power(index_array_5,2) + 0.0001*np.power(index_array_5,1) + 0.4292</t>
+  </si>
+  <si>
+    <t>y = 5E-23*np.power(index_array_6,6) + 6E-21*np.power(index_array_6,5) + 9E-18*np.power(index_array_6,4) - 3E-15*np.power(index_array_6,3) + 7E-13*np.power(index_array_6,2) + 0.0004*np.power(index_array_6,1) + 0.4509</t>
+  </si>
+  <si>
+    <t>y = -5E-23*np.power(index_array_7,6) + 3E-22*np.power(index_array_7,5) + 1E-17*np.power(index_array_7,4) - 9E-16*np.power(index_array_7,3) - 2E-13*np.power(index_array_7,2) + 0.0003*np.power(index_array_7,1) + 0.5089</t>
+  </si>
+  <si>
+    <t>y = -5E-22*np.power(index_array_8,6) + 3E-19*np.power(index_array_8,5) - 3E-17*np.power(index_array_8,4) + 1E-15*np.power(index_array_8,3) - 3E-13*np.power(index_array_8,2) + 0.0003*np.power(index_array_8,1) + 0.5419</t>
+  </si>
+  <si>
+    <t>y = 1E-21*np.power(index_array_9,6) - 2E-19*np.power(index_array_9,5) + 8E-17*np.power(index_array_9,4) - 1E-14*np.power(index_array_9,3) + 1E-12*np.power(index_array_9,2) + 0.0001*np.power(index_array_9,1) + 0.5759</t>
+  </si>
+  <si>
+    <t>y = 2E-22*np.power(index_array_10,6) - 2E-19*np.power(index_array_10,5) + 4E-17*np.power(index_array_10,4) - 6E-15*np.power(index_array_10,3) + 7E-13*np.power(index_array_10,2) + 0.0003*np.power(index_array_10,1) + 0.5898</t>
+  </si>
+  <si>
+    <t>y = -1E-22*np.power(index_array_11,6) + 2E-19*np.power(index_array_11,5) - 1E-18*np.power(index_array_11,4) - 8E-15*np.power(index_array_11,3) + 2E-12*np.power(index_array_11,2) + 0.0001*np.power(index_array_11,1) + 0.6218</t>
+  </si>
+  <si>
+    <t>y = -6E-22*np.power(index_array_12,6) + 2E-19*np.power(index_array_12,5) - 8E-19*np.power(index_array_12,4) - 7E-15*np.power(index_array_12,3) + 2E-12*np.power(index_array_12,2) + 0.0002*np.power(index_array_12,1) + 0.6363</t>
+  </si>
+  <si>
+    <t>y = 1E-21*np.power(index_array_13,6) - 3E-19*np.power(index_array_13,5) + 2E-17*np.power(index_array_13,4) + 7E-15*np.power(index_array_13,3) - 6E-13*np.power(index_array_13,2) + 9E-05*np.power(index_array_13,1) + 0.6521</t>
+  </si>
+  <si>
+    <t>y = -2E-21*np.power(index_array_14,6) + 4E-19*np.power(index_array_14,5) - 5E-17*np.power(index_array_14,4) - 5E-15*np.power(index_array_14,3) + 2E-12*np.power(index_array_14,2) + 0.0003*np.power(index_array_14,1) + 0.6618</t>
+  </si>
+  <si>
+    <t>y = -8E-22*np.power(index_array_15,6) + 4E-19*np.power(index_array_15,5) - 1E-16*np.power(index_array_15,4) + 2E-14*np.power(index_array_15,3) - 3E-12*np.power(index_array_15,2) + 5E-05*np.power(index_array_15,1) + 0.6929</t>
+  </si>
+  <si>
+    <t>y = -7E-15*np.power(index_array_16,4) - 3E-14*np.power(index_array_16,3) + 1E-14*np.power(index_array_16,2) + 0.0044*np.power(index_array_16,1) + 0.6976</t>
+  </si>
+  <si>
+    <t>y = -3E-21*np.power(index_array_17,6) + 1E-19*np.power(index_array_17,5) - 2E-16*np.power(index_array_17,4) + 3E-14*np.power(index_array_17,3) - 3E-12*np.power(index_array_17,2) + 0.0001*np.power(index_array_17,1) + 0.7195</t>
+  </si>
+  <si>
+    <t>y = -6E-22*np.power(index_array_18,6) - 4E-19*np.power(index_array_18,5) - 7E-17*np.power(index_array_18,4) + 2E-14*np.power(index_array_18,3) - 2E-12*np.power(index_array_18,2) + 0.0002*np.power(index_array_18,1) + 0.7316</t>
+  </si>
+  <si>
+    <t>y = -3E-21*np.power(index_array_19,6) + 1E-18*np.power(index_array_19,5) - 1E-16*np.power(index_array_19,4) + 2E-14*np.power(index_array_19,3) - 1E-12*np.power(index_array_19,2) + 0.0002*np.power(index_array_19,1) + 0.748</t>
+  </si>
+  <si>
+    <t>y = 8E-22*np.power(index_array_20,6) - 3E-19*np.power(index_array_20,5) + 3E-17*np.power(index_array_20,4) + 1E-14*np.power(index_array_20,3) - 9E-13*np.power(index_array_20,2) + 0.0001*np.power(index_array_20,1) + 0.7665</t>
+  </si>
+  <si>
+    <t>y = -3E-21*np.power(index_array_21,6) + 4E-19*np.power(index_array_21,5) - 2E-17*np.power(index_array_21,4) + 1E-14*np.power(index_array_21,3) - 1E-12*np.power(index_array_21,2) + 3E-05*np.power(index_array_21,1) + 0.7757</t>
+  </si>
+  <si>
+    <t>y = -3E-21*np.power(index_array_22,6) + 1E-18*np.power(index_array_22,5) - 2E-16*np.power(index_array_22,4) + 1E-14*np.power(index_array_22,3) + 1E-12*np.power(index_array_22,2) + 0.0003*np.power(index_array_22,1) + 0.778</t>
+  </si>
+  <si>
+    <t>y = 1E-20*np.power(index_array_23,6) - 3E-18*np.power(index_array_23,5) + 2E-16*np.power(index_array_23,4) - 7E-15*np.power(index_array_23,3) + 2E-13*np.power(index_array_23,2) + 2E-05*np.power(index_array_23,1) + 0.8017</t>
+  </si>
+  <si>
+    <t>y = 3E-21*np.power(index_array_24,6) + 2E-19*np.power(index_array_24,5) - 6E-17*np.power(index_array_24,4) + 1E-14*np.power(index_array_24,3) - 1E-13*np.power(index_array_24,2) - 8E-06*np.power(index_array_24,1) + 0.8033</t>
+  </si>
+  <si>
+    <t>y = 2E-21*np.power(index_array_25,6) + 4E-19*np.power(index_array_25,5) - 1E-16*np.power(index_array_25,4) + 1E-14*np.power(index_array_25,3) + 1E-12*np.power(index_array_25,2) + 0.0002*np.power(index_array_25,1) + 0.8027</t>
+  </si>
+  <si>
+    <t>y = -3E-21*np.power(index_array_26,6) + 7E-19*np.power(index_array_26,5) - 1E-16*np.power(index_array_26,4) - 3E-15*np.power(index_array_26,3) + 2E-12*np.power(index_array_26,2) - 7E-05*np.power(index_array_26,1) + 0.8171</t>
+  </si>
+  <si>
+    <t>y =  - 7E-19*np.power(index_array_27,5) + 2E-16*np.power(index_array_27,4) - 5E-15*np.power(index_array_27,3) - 2E-12*np.power(index_array_27,2) + 9E-06*np.power(index_array_27,1) + 0.8113</t>
+  </si>
+  <si>
+    <t>y = 7E-21*np.power(index_array_28,6) - 3E-19*np.power(index_array_28,5) - 5E-17*np.power(index_array_28,4) + 1E-14*np.power(index_array_28,3) - 1E-13*np.power(index_array_28,2) + 0.0002*np.power(index_array_28,1) + 0.8119</t>
+  </si>
+  <si>
+    <t>y = -9E-21*np.power(index_array_29,6) + 3E-18*np.power(index_array_29,5) - 4E-16*np.power(index_array_29,4) + 3E-14*np.power(index_array_29,3) + 2E-13*np.power(index_array_29,2) + 3E-05*np.power(index_array_29,1) + 0.8251</t>
+  </si>
+  <si>
+    <t>y = -6E-21*np.power(index_array_30,6) + 2E-18*np.power(index_array_30,5) - 3E-16*np.power(index_array_30,4) + 1E-14*np.power(index_array_30,3) + 1E-12*np.power(index_array_30,2) + 2E-05*np.power(index_array_30,1) + 0.8278</t>
+  </si>
+  <si>
+    <t>y = 8E-22*np.power(index_array_31,6) - 4E-19*np.power(index_array_31,5) - 9E-17*np.power(index_array_31,4) + 8E-15*np.power(index_array_31,3) + 1E-12*np.power(index_array_31,2) + 2E-05*np.power(index_array_31,1) + 0.8297</t>
+  </si>
+  <si>
+    <t>y = -3E-21*np.power(index_array_32,6) + 4E-19*np.power(index_array_32,5) - 2E-16*np.power(index_array_32,4) + 1E-14*np.power(index_array_32,3) + 1E-12*np.power(index_array_32,2) - 0.0002*np.power(index_array_32,1) + 0.831</t>
+  </si>
+  <si>
+    <t>y = -5E-21*np.power(index_array_33,6) + 7E-19*np.power(index_array_33,5) - 1E-16*np.power(index_array_33,4) + 2E-14*np.power(index_array_33,3) - 1E-12*np.power(index_array_33,2) + 6E-05*np.power(index_array_33,1) + 0.8172</t>
+  </si>
+  <si>
+    <t>y = 2E-21*np.power(index_array_34,6) - 7E-19*np.power(index_array_34,5) - 9E-17*np.power(index_array_34,4) + 7E-15*np.power(index_array_34,3) + 1E-12*np.power(index_array_34,2) + 4E-05*np.power(index_array_34,1) + 0.8223</t>
+  </si>
+  <si>
+    <t>y = -3E-21*np.power(index_array_35,6) + 7E-19*np.power(index_array_35,5) - 2E-16*np.power(index_array_35,4) + 2E-14*np.power(index_array_35,3) + 1E-12*np.power(index_array_35,2) + 3E-05*np.power(index_array_35,1) + 0.8258</t>
+  </si>
+  <si>
+    <t>y = -6E-21*np.power(index_array_36,6) + 2E-18*np.power(index_array_36,5) - 2E-16*np.power(index_array_36,4) + 2E-14*np.power(index_array_36,3) + 1E-12*np.power(index_array_36,2) + 2E-05*np.power(index_array_36,1) + 0.8283</t>
+  </si>
+  <si>
+    <t>y = 2E-21*np.power(index_array_37,6) - 1E-20*np.power(index_array_37,5) - 1E-16*np.power(index_array_37,4) + 1E-14*np.power(index_array_37,3) + 1E-12*np.power(index_array_37,2) + 2E-05*np.power(index_array_37,1) + 0.83</t>
+  </si>
+  <si>
+    <t>y = -8E-21*np.power(index_array_38,6) + 1E-18*np.power(index_array_38,5) - 3E-16*np.power(index_array_38,4) + 2E-14*np.power(index_array_38,3) + 1E-12*np.power(index_array_38,2) + 1E-05*np.power(index_array_38,1) + 0.8312</t>
+  </si>
+  <si>
+    <t>y = 5E-21*np.power(index_array_39,6) - 7E-19*np.power(index_array_39,5) - 4E-17*np.power(index_array_39,4) + 4E-15*np.power(index_array_39,3) + 1E-12*np.power(index_array_39,2) + 7E-06*np.power(index_array_39,1) + 0.8321</t>
+  </si>
+  <si>
+    <t>y = -8E-21*np.power(index_array_40,6) + 2E-18*np.power(index_array_40,5) - 4E-16*np.power(index_array_40,4) + 2E-14*np.power(index_array_40,3) + 1E-12*np.power(index_array_40,2) + 5E-06*np.power(index_array_40,1) + 0.8327</t>
+  </si>
+  <si>
+    <t>y = 7E-21*np.power(index_array_41,6) - 9E-19*np.power(index_array_41,5) + 4E-18*np.power(index_array_41,4) + 8E-15*np.power(index_array_41,3) + 1E-12*np.power(index_array_41,2) + 0.0002*np.power(index_array_41,1) + 0.8331</t>
+  </si>
+  <si>
+    <t>y = -8E-21*np.power(index_array_42,6) + 2E-18*np.power(index_array_42,5) - 2E-16*np.power(index_array_42,4) - 4E-15*np.power(index_array_42,3) + 2E-12*np.power(index_array_42,2) - 6E-05*np.power(index_array_42,1) + 0.8501</t>
+  </si>
+  <si>
+    <t>y = -4E-21*np.power(index_array_43,6) + 7E-19*np.power(index_array_43,5) - 2E-16*np.power(index_array_43,4) + 1E-14*np.power(index_array_43,3) + 1E-12*np.power(index_array_43,2) - 4E-05*np.power(index_array_43,1) + 0.8453</t>
+  </si>
+  <si>
+    <t>y = -4E-21*np.power(index_array_44,6) + 2E-18*np.power(index_array_44,5) - 3E-16*np.power(index_array_44,4) + 1E-14*np.power(index_array_44,3) + 1E-12*np.power(index_array_44,2) - 0.0001*np.power(index_array_44,1) + 0.8419</t>
+  </si>
+  <si>
+    <t>y = -7E-21*np.power(index_array_45,6) + 2E-18*np.power(index_array_45,5) - 3E-16*np.power(index_array_45,4) + 5E-14*np.power(index_array_45,3) - 5E-12*np.power(index_array_45,2) + 5E-06*np.power(index_array_45,1) + 0.8303</t>
+  </si>
+  <si>
+    <t>y = 3E-21*np.power(index_array_46,6) + 4E-19*np.power(index_array_46,5) - 2E-16*np.power(index_array_46,4) + 9E-15*np.power(index_array_46,3) + 1E-12*np.power(index_array_46,2) + 7E-05*np.power(index_array_46,1) + 0.8307</t>
+  </si>
+  <si>
+    <t>y = 1E-20*np.power(index_array_47,6) - 2E-18*np.power(index_array_47,5) + 2E-16*np.power(index_array_47,4) - 2E-14*np.power(index_array_47,3) + 2E-12*np.power(index_array_47,2) + 3E-05*np.power(index_array_47,1) + 0.8366</t>
+  </si>
+  <si>
+    <t>y = -6E-21*np.power(index_array_48,6) + 3E-18*np.power(index_array_48,5) - 5E-16*np.power(index_array_48,4) + 3E-14*np.power(index_array_48,3) + 2E-13*np.power(index_array_48,2) + 5E-05*np.power(index_array_48,1) + 0.8385</t>
+  </si>
+  <si>
+    <t>y = -1E-20*np.power(index_array_49,6) + 3E-19*np.power(index_array_49,5) - 6E-17*np.power(index_array_49,4) + 3E-14*np.power(index_array_49,3) - 4E-12*np.power(index_array_49,2) + 3E-06*np.power(index_array_49,1) + 0.8424</t>
+  </si>
+  <si>
+    <t>y = -6E-21*np.power(index_array_50,6) + 3E-18*np.power(index_array_50,5) - 4E-16*np.power(index_array_50,4) + 4E-14*np.power(index_array_50,3) - 1E-12*np.power(index_array_50,2) + 3E-05*np.power(index_array_50,1) + 0.8426</t>
+  </si>
+  <si>
+    <t>y = 6E-21*np.power(index_array_51,6) - 9E-19*np.power(index_array_51,5) + 3E-17*np.power(index_array_51,4) - 3E-15*np.power(index_array_51,3) + 9E-13*np.power(index_array_51,2) - 4E-05*np.power(index_array_51,1) + 0.845</t>
+  </si>
+  <si>
+    <t>y = 4E-21*np.power(index_array_52,6) - 3E-20*np.power(index_array_52,5) - 6E-17*np.power(index_array_52,4) - 5E-15*np.power(index_array_52,3) + 2E-12*np.power(index_array_52,2) + 0.0001*np.power(index_array_52,1) + 0.8419</t>
+  </si>
+  <si>
+    <t>y = -2E-20*np.power(index_array_53,6) + 5E-18*np.power(index_array_53,5) - 7E-16*np.power(index_array_53,4) + 7E-14*np.power(index_array_53,3) - 5E-12*np.power(index_array_53,2) + 3E-06*np.power(index_array_53,1) + 0.853</t>
+  </si>
+  <si>
+    <t>y = 2E-21*np.power(index_array_54,6) - 7E-19*np.power(index_array_54,5) - 2E-16*np.power(index_array_54,4) + 2E-14*np.power(index_array_54,3) + 4E-13*np.power(index_array_54,2) + 3E-06*np.power(index_array_54,1) + 0.8533</t>
+  </si>
+  <si>
+    <t>y = 3E-21*np.power(index_array_55,6) + 2E-19*np.power(index_array_55,5) - 2E-16*np.power(index_array_55,4) + 2E-14*np.power(index_array_55,3) + 4E-13*np.power(index_array_55,2) - 2E-05*np.power(index_array_55,1) + 0.8535</t>
+  </si>
+  <si>
+    <t>y = -8E-22*np.power(index_array_56,6) + 7E-19*np.power(index_array_56,5) - 1E-16*np.power(index_array_56,4) + 1E-14*np.power(index_array_56,3) + 1E-12*np.power(index_array_56,2) + 9E-05*np.power(index_array_56,1) + 0.8516</t>
+  </si>
+  <si>
+    <t>y = 5E-21*np.power(index_array_57,6) - 3E-18*np.power(index_array_57,5) + 6E-16*np.power(index_array_57,4) - 4E-14*np.power(index_array_57,3) + 5E-13*np.power(index_array_57,2) - 3E-05*np.power(index_array_57,1) + 0.8591</t>
+  </si>
+  <si>
+    <t>y = -9E-21*np.power(index_array_58,6) + 2E-18*np.power(index_array_58,5) - 3E-16*np.power(index_array_58,4) + 2E-14*np.power(index_array_58,3) + 1E-12*np.power(index_array_58,2) + 3E-05*np.power(index_array_58,1) + 0.8566</t>
+  </si>
+  <si>
+    <t>y = -1E-20*np.power(index_array_59,6) + 2E-18*np.power(index_array_59,5) - 2E-16*np.power(index_array_59,4) + 4E-14*np.power(index_array_59,3) - 4E-12*np.power(index_array_59,2) - 4E-06*np.power(index_array_59,1) + 0.8587</t>
+  </si>
+  <si>
+    <t>y = -5E-21*np.power(index_array_60,6) + 2E-18*np.power(index_array_60,5) - 4E-16*np.power(index_array_60,4) + 3E-14*np.power(index_array_60,3) + 2E-13*np.power(index_array_60,2) + 3E-05*np.power(index_array_60,1) + 0.8584</t>
+  </si>
+  <si>
+    <t>y = -5E-21*np.power(index_array_61,6) + 3E-20*np.power(index_array_61,5) - 1E-16*np.power(index_array_61,4) + 3E-14*np.power(index_array_61,3) - 4E-12*np.power(index_array_61,2) + 5E-05*np.power(index_array_61,1) + 0.8603</t>
+  </si>
+  <si>
+    <t>y = 7E-21*np.power(index_array_62,6) - 5E-19*np.power(index_array_62,5) - 8E-17*np.power(index_array_62,4) + 2E-15*np.power(index_array_62,3) - 7E-13*np.power(index_array_62,2) + 2E-05*np.power(index_array_62,1) + 0.8645</t>
+  </si>
+  <si>
+    <t>y = 8E-22*np.power(index_array_63,6) - 2E-18*np.power(index_array_63,5) + 2E-16*np.power(index_array_63,4) + 2E-14*np.power(index_array_63,3) - 4E-12*np.power(index_array_63,2) + 2E-05*np.power(index_array_63,1) + 0.8658</t>
+  </si>
+  <si>
+    <t>y = 3E-21*np.power(index_array_64,6) - 2E-19*np.power(index_array_64,5) + 6E-17*np.power(index_array_64,4) + 2E-14*np.power(index_array_64,3) - 4E-12*np.power(index_array_64,2) - 2E-05*np.power(index_array_64,1) + 0.867</t>
+  </si>
+  <si>
+    <t>y = -2E-21*np.power(index_array_65,6) + 7E-19*np.power(index_array_65,5) - 3E-16*np.power(index_array_65,4) + 3E-14*np.power(index_array_65,3) + 3E-13*np.power(index_array_65,2) + 5E-05*np.power(index_array_65,1) + 0.8659</t>
+  </si>
+  <si>
+    <t>y = -1E-20*np.power(index_array_66,6) + 1E-18*np.power(index_array_66,5) + 3E-16*np.power(index_array_66,4) - 5E-14*np.power(index_array_66,3) + 3E-12*np.power(index_array_66,2) + 4E-05*np.power(index_array_66,1) + 0.8695</t>
+  </si>
+  <si>
+    <t>y = 8E-21*np.power(index_array_67,6) - 2E-18*np.power(index_array_67,5) + 2E-16*np.power(index_array_67,4) - 2E-14*np.power(index_array_67,3) + 2E-12*np.power(index_array_67,2) + 7E-06*np.power(index_array_67,1) + 0.8727</t>
+  </si>
+  <si>
+    <t>y = -1E-20*np.power(index_array_68,6) + 3E-18*np.power(index_array_68,5) - 3E-16*np.power(index_array_68,4) + 4E-14*np.power(index_array_68,3) - 4E-12*np.power(index_array_68,2) + 4E-05*np.power(index_array_68,1) + 0.8732</t>
+  </si>
+  <si>
+    <t>y = -1E-20*np.power(index_array_69,6) + 3E-18*np.power(index_array_69,5) - 3E-16*np.power(index_array_69,4) + 1E-14*np.power(index_array_69,3) - 9E-13*np.power(index_array_69,2) - 3E-05*np.power(index_array_69,1) + 0.8761</t>
+  </si>
+  <si>
+    <t>y = -9E-21*np.power(index_array_70,6) + 2E-18*np.power(index_array_70,5) - 3E-16*np.power(index_array_70,4) + 3E-14*np.power(index_array_70,3) + 2E-13*np.power(index_array_70,2) + 4E-05*np.power(index_array_70,1) + 0.874</t>
+  </si>
+  <si>
+    <t>y = -1E-20*np.power(index_array_71,6) + 2E-18*np.power(index_array_71,5) - 3E-16*np.power(index_array_71,4) + 1E-14*np.power(index_array_71,3) - 9E-13*np.power(index_array_71,2) - 6E-05*np.power(index_array_71,1) + 0.8768</t>
+  </si>
+  <si>
+    <t>y = 4E-21*np.power(index_array_72,6) - 5E-19*np.power(index_array_72,5) - 5E-17*np.power(index_array_72,4) + 1E-14*np.power(index_array_72,3) + 1E-12*np.power(index_array_72,2) + 7E-05*np.power(index_array_72,1) + 0.8725</t>
+  </si>
+  <si>
+    <t>y = -7E-21*np.power(index_array_73,6) - 8E-19*np.power(index_array_73,5) + 5E-16*np.power(index_array_73,4) - 4E-14*np.power(index_array_73,3) + 3E-13*np.power(index_array_73,2) - 3E-05*np.power(index_array_73,1) + 0.8779</t>
+  </si>
+  <si>
+    <t>y =  - 2E-16*np.power(index_array_74,4) + 2E-14*np.power(index_array_74,3) + 4E-13*np.power(index_array_74,2) - 3E-05*np.power(index_array_74,1) + 0.8757</t>
+  </si>
+  <si>
+    <t>y = -8E-22*np.power(index_array_75,6) + 4E-19*np.power(index_array_75,5) - 2E-16*np.power(index_array_75,4) + 3E-14*np.power(index_array_75,3) + 3E-13*np.power(index_array_75,2) + 6E-06*np.power(index_array_75,1) + 0.8737</t>
+  </si>
+  <si>
+    <t>y = -9E-21*np.power(index_array_76,6) + 7E-19*np.power(index_array_76,5) - 1E-16*np.power(index_array_76,4) + 3E-14*np.power(index_array_76,3) - 4E-12*np.power(index_array_76,2) + 5E-06*np.power(index_array_76,1) + 0.8741</t>
+  </si>
+  <si>
+    <t>y = -6E-21*np.power(index_array_77,6) + 9E-19*np.power(index_array_77,5) - 6E-17*np.power(index_array_77,4) + 4E-14*np.power(index_array_77,3) - 4E-12*np.power(index_array_77,2) - 3E-05*np.power(index_array_77,1) + 0.8745</t>
+  </si>
+  <si>
+    <t>y = -7E-21*np.power(index_array_78,6) + 2E-18*np.power(index_array_78,5) - 3E-16*np.power(index_array_78,4) + 3E-14*np.power(index_array_78,3) + 4E-13*np.power(index_array_78,2) - 2E-05*np.power(index_array_78,1) + 0.8726</t>
+  </si>
+  <si>
+    <t>y = 5E-21*np.power(index_array_79,6) + 6E-19*np.power(index_array_79,5) - 2E-16*np.power(index_array_79,4) + 2E-14*np.power(index_array_79,3) + 4E-13*np.power(index_array_79,2) + 4E-05*np.power(index_array_79,1) + 0.8709</t>
+  </si>
+  <si>
+    <t>y = -2E-20*np.power(index_array_80,6) + 3E-18*np.power(index_array_80,5) - 5E-16*np.power(index_array_80,4) + 2E-14*np.power(index_array_80,3) - 9E-13*np.power(index_array_80,2) + 5E-06*np.power(index_array_80,1) + 0.8739</t>
+  </si>
+  <si>
+    <t>y =  - 3E-17*np.power(index_array_81,4) + 3E-14*np.power(index_array_81,3) - 4E-12*np.power(index_array_81,2) + 5E-06*np.power(index_array_81,1) + 0.8743</t>
+  </si>
+  <si>
+    <t>y = -1E-20*np.power(index_array_82,6) + 2E-18*np.power(index_array_82,5) - 2E-16*np.power(index_array_82,4) + 4E-14*np.power(index_array_82,3) - 4E-12*np.power(index_array_82,2) + 4E-06*np.power(index_array_82,1) + 0.8747</t>
+  </si>
+  <si>
+    <t>y = -2E-20*np.power(index_array_83,6) + 3E-18*np.power(index_array_83,5) - 4E-16*np.power(index_array_83,4) + 4E-14*np.power(index_array_83,3) - 4E-12*np.power(index_array_83,2) + 4E-06*np.power(index_array_83,1) + 0.875</t>
+  </si>
+  <si>
+    <t>y = -8E-21*np.power(index_array_84,6) + 2E-18*np.power(index_array_84,5) - 3E-16*np.power(index_array_84,4) + 4E-14*np.power(index_array_84,3) - 4E-12*np.power(index_array_84,2) + 3E-06*np.power(index_array_84,1) + 0.8753</t>
+  </si>
+  <si>
+    <t>y = -2E-20*np.power(index_array_85,6) + 3E-18*np.power(index_array_85,5) - 4E-16*np.power(index_array_85,4) + 4E-14*np.power(index_array_85,3) - 4E-12*np.power(index_array_85,2) + 3E-06*np.power(index_array_85,1) + 0.8756</t>
+  </si>
+  <si>
+    <t>y = -1E-20*np.power(index_array_86,6) + 2E-18*np.power(index_array_86,5) - 2E-16*np.power(index_array_86,4) + 4E-14*np.power(index_array_86,3) - 4E-12*np.power(index_array_86,2) + 3E-06*np.power(index_array_86,1) + 0.8758</t>
+  </si>
+  <si>
+    <t>y = -2E-20*np.power(index_array_87,6) + 3E-18*np.power(index_array_87,5) - 3E-16*np.power(index_array_87,4) + 4E-14*np.power(index_array_87,3) - 4E-12*np.power(index_array_87,2) + 3E-06*np.power(index_array_87,1) + 0.876</t>
+  </si>
+  <si>
+    <t>y = -2E-20*np.power(index_array_88,6) + 4E-18*np.power(index_array_88,5) - 3E-16*np.power(index_array_88,4) + 4E-14*np.power(index_array_88,3) - 4E-12*np.power(index_array_88,2) + 2E-06*np.power(index_array_88,1) + 0.8762</t>
+  </si>
+  <si>
+    <t>y = -1E-20*np.power(index_array_89,6) + 1E-18*np.power(index_array_89,5) - 2E-16*np.power(index_array_89,4) + 4E-14*np.power(index_array_89,3) - 4E-12*np.power(index_array_89,2) - 8E-05*np.power(index_array_89,1) + 0.8764</t>
+  </si>
+  <si>
+    <t>y = -1E-20*np.power(index_array_90,6) + 5E-18*np.power(index_array_90,5) - 5E-16*np.power(index_array_90,4) + 1E-14*np.power(index_array_90,3) + 2E-12*np.power(index_array_90,2) + 0.0001*np.power(index_array_90,1) + 0.8701</t>
+  </si>
+  <si>
+    <t>y = -2E-20*np.power(index_array_91,6) + 4E-18*np.power(index_array_91,5) - 6E-16*np.power(index_array_91,4) + 6E-14*np.power(index_array_91,3) - 5E-12*np.power(index_array_91,2) - 3E-05*np.power(index_array_91,1) + 0.8785</t>
+  </si>
+  <si>
+    <t>y = -9E-21*np.power(index_array_92,6) + 3E-18*np.power(index_array_92,5) - 5E-16*np.power(index_array_92,4) + 3E-14*np.power(index_array_92,3) + 2E-13*np.power(index_array_92,2) - 3E-05*np.power(index_array_92,1) + 0.8762</t>
+  </si>
+  <si>
+    <t>y = -7E-21*np.power(index_array_93,6) + 3E-18*np.power(index_array_93,5) - 4E-16*np.power(index_array_93,4) + 3E-14*np.power(index_array_93,3) + 1E-13*np.power(index_array_93,2) - 2E-05*np.power(index_array_93,1) + 0.8741</t>
+  </si>
+  <si>
+    <t>y = -9E-21*np.power(index_array_94,6) + 4E-18*np.power(index_array_94,5) - 4E-16*np.power(index_array_94,4) + 3E-14*np.power(index_array_94,3) + 2E-13*np.power(index_array_94,2) - 2E-05*np.power(index_array_94,1) + 0.8722</t>
+  </si>
+  <si>
+    <t>y = -1E-20*np.power(index_array_95,6) + 4E-18*np.power(index_array_95,5) - 5E-16*np.power(index_array_95,4) + 4E-14*np.power(index_array_95,3) + 1E-13*np.power(index_array_95,2) - 2E-05*np.power(index_array_95,1) + 0.8705</t>
+  </si>
+  <si>
+    <t>y = -8E-22*np.power(index_array_96,6) + 1E-18*np.power(index_array_96,5) - 4E-16*np.power(index_array_96,4) + 3E-14*np.power(index_array_96,3) + 2E-13*np.power(index_array_96,2) - 2E-05*np.power(index_array_96,1) + 0.869</t>
+  </si>
+  <si>
+    <t>y = -2E-21*np.power(index_array_97,6) + 2E-18*np.power(index_array_97,5) - 3E-16*np.power(index_array_97,4) + 3E-14*np.power(index_array_97,3) + 3E-13*np.power(index_array_97,2) - 4E-05*np.power(index_array_97,1) + 0.8677</t>
+  </si>
+  <si>
+    <t>y = -6E-21*np.power(index_array_98,6) + 1E-18*np.power(index_array_98,5) - 2E-16*np.power(index_array_98,4) + 2E-14*np.power(index_array_98,3) + 1E-12*np.power(index_array_98,2) + 2E-05*np.power(index_array_98,1) + 0.8643</t>
+  </si>
+  <si>
+    <t>y = -6E-21*np.power(index_array_99,6) + 2E-18*np.power(index_array_99,5) - 1E-16*np.power(index_array_99,4) + 3E-14*np.power(index_array_99,3) - 4E-12*np.power(index_array_99,2) - 4E-05*np.power(index_array_99,1) + 0.8657</t>
+  </si>
+  <si>
+    <t>y = -1E-20*np.power(index_array_100,6) + 4E-18*np.power(index_array_100,5) - 4E-16*np.power(index_array_100,4) + 3E-14*np.power(index_array_100,3) + 9E-13*np.power(index_array_100,2) - 9E-06*np.power(index_array_100,1) + 0.8625</t>
+  </si>
+  <si>
+    <t>y = -5E-21*np.power(index_array_101,6) + 2E-18*np.power(index_array_101,5) - 4E-16*np.power(index_array_101,4) + 3E-14*np.power(index_array_101,3) + 2E-13*np.power(index_array_101,2) - 8E-06*np.power(index_array_101,1) + 0.8618</t>
+  </si>
+  <si>
+    <t>y = -2E-20*np.power(index_array_102,6) + 4E-18*np.power(index_array_102,5) - 6E-16*np.power(index_array_102,4) + 4E-14*np.power(index_array_102,3) + 3E-14*np.power(index_array_102,2) - 7E-06*np.power(index_array_102,1) + 0.8612</t>
+  </si>
+  <si>
+    <t>y = -4E-21*np.power(index_array_103,6) + 2E-18*np.power(index_array_103,5) - 4E-16*np.power(index_array_103,4) + 3E-14*np.power(index_array_103,3) + 3E-13*np.power(index_array_103,2) - 7E-06*np.power(index_array_103,1) + 0.8606</t>
+  </si>
+  <si>
+    <t>y = 2E-21*np.power(index_array_104,6) + 4E-19*np.power(index_array_104,5) - 1E-16*np.power(index_array_104,4) + 2E-14*np.power(index_array_104,3) + 5E-13*np.power(index_array_104,2) - 6E-05*np.power(index_array_104,1) + 0.8601</t>
+  </si>
+  <si>
+    <t>y = -1E-20*np.power(index_array_105,6) + 5E-18*np.power(index_array_105,5) - 5E-16*np.power(index_array_105,4) + 1E-14*np.power(index_array_105,3) + 1E-12*np.power(index_array_105,2) - 3E-05*np.power(index_array_105,1) + 0.8555</t>
+  </si>
+  <si>
+    <t>y = -1E-20*np.power(index_array_106,6) + 4E-18*np.power(index_array_106,5) - 4E-16*np.power(index_array_106,4) + 2E-14*np.power(index_array_106,3) + 9E-13*np.power(index_array_106,2) + 6E-05*np.power(index_array_106,1) + 0.8533</t>
+  </si>
+  <si>
+    <t>y = -1E-20*np.power(index_array_107,6) + 5E-18*np.power(index_array_107,5) - 5E-16*np.power(index_array_107,4) + 2E-14*np.power(index_array_107,3) - 9E-13*np.power(index_array_107,2) - 3E-05*np.power(index_array_107,1) + 0.8582</t>
+  </si>
+  <si>
+    <t>y = 5E-21*np.power(index_array_108,6) - 1E-18*np.power(index_array_108,5) - 1E-16*np.power(index_array_108,4) + 8E-15*np.power(index_array_108,3) + 1E-12*np.power(index_array_108,2) - 4E-07*np.power(index_array_108,1) + 0.8557</t>
+  </si>
+  <si>
+    <t>y = -2E-21*np.power(index_array_109,6) + 2E-18*np.power(index_array_109,5) - 3E-16*np.power(index_array_109,4) + 3E-14*np.power(index_array_109,3) + 2E-13*np.power(index_array_109,2) - 5E-05*np.power(index_array_109,1) + 0.8557</t>
+  </si>
+  <si>
+    <t>y = 4E-19*np.power(index_array_110,5) - 1E-16*np.power(index_array_110,4) - 4E-16*np.power(index_array_110,3) + 2E-12*np.power(index_array_110,2) - 2E-05*np.power(index_array_110,1) + 0.8515</t>
+  </si>
+  <si>
+    <t>y = -8E-22*np.power(index_array_111,6) - 2E-19*np.power(index_array_111,5) - 2E-16*np.power(index_array_111,4) + 1E-14*np.power(index_array_111,3) + 1E-12*np.power(index_array_111,2) - 2E-05*np.power(index_array_111,1) + 0.8498</t>
+  </si>
+  <si>
+    <t>y = 8E-22*np.power(index_array_112,6) - 5E-21*np.power(index_array_112,5) + 3E-17*np.power(index_array_112,4) - 7E-15*np.power(index_array_112,3) + 2E-13*np.power(index_array_112,2) - 2E-05*np.power(index_array_112,1) + 0.8482</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
-      <name val="Calibri"/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="맑은 고딕"/>
       <family val="2"/>
-      <color theme="1"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b val="1"/>
+      <b/>
+      <sz val="11"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill/>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -46,10 +401,18 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
@@ -57,83 +420,24 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle name="표준" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -421,175 +725,921 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:E10"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B113"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+    <sheetView tabSelected="1" topLeftCell="A61" workbookViewId="0">
+      <selection activeCell="B77" sqref="B77"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="2" width="204" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1">
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>Unnamed: 1</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>Unnamed: 3</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>Unnamed: 4</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>Unnamed: 5</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="1" t="n">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B1" s="1">
         <v>0</v>
       </c>
-      <c r="B2" t="inlineStr"/>
-      <c r="C2" t="inlineStr"/>
-      <c r="D2" t="inlineStr"/>
-      <c r="E2" t="inlineStr"/>
-    </row>
-    <row r="3">
-      <c r="A3" s="1" t="n">
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A2" s="1">
+        <v>0</v>
+      </c>
+      <c r="B2" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3" s="1">
         <v>1</v>
       </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">TEST </t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>test_2</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>test_3</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>test_4</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
+      <c r="B3" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4" s="1">
         <v>2</v>
       </c>
-      <c r="B4" t="n">
-        <v>1</v>
-      </c>
-      <c r="C4" t="n">
+      <c r="B4" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A5" s="1">
         <v>3</v>
       </c>
-      <c r="D4" t="n">
+      <c r="B5" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A6" s="1">
         <v>4</v>
       </c>
-      <c r="E4" t="n">
+      <c r="B6" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A7" s="1">
         <v>5</v>
       </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="n">
+      <c r="B7" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A8" s="1">
         <v>6</v>
       </c>
-      <c r="C5" t="n">
+      <c r="B8" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A9" s="1">
+        <v>7</v>
+      </c>
+      <c r="B9" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A10" s="1">
         <v>8</v>
       </c>
-      <c r="D5" t="n">
+      <c r="B10" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A11" s="1">
         <v>9</v>
       </c>
-      <c r="E5" t="n">
+      <c r="B11" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A12" s="1">
         <v>10</v>
       </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="n">
+      <c r="B12" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A13" s="1">
         <v>11</v>
       </c>
-      <c r="C6" t="n">
+      <c r="B13" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A14" s="1">
+        <v>12</v>
+      </c>
+      <c r="B14" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A15" s="1">
         <v>13</v>
       </c>
-      <c r="D6" t="n">
+      <c r="B15" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A16" s="1">
         <v>14</v>
       </c>
-      <c r="E6" t="n">
+      <c r="B16" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A17" s="1">
         <v>15</v>
       </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="n">
+      <c r="B17" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A18" s="1">
         <v>16</v>
       </c>
-      <c r="C7" t="n">
+      <c r="B18" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A19" s="1">
+        <v>17</v>
+      </c>
+      <c r="B19" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A20" s="1">
         <v>18</v>
       </c>
-      <c r="D7" t="n">
+      <c r="B20" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A21" s="1">
         <v>19</v>
       </c>
-      <c r="E7" t="n">
+      <c r="B21" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A22" s="1">
         <v>20</v>
       </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="inlineStr"/>
-      <c r="C8" t="inlineStr"/>
-      <c r="D8" t="inlineStr"/>
-      <c r="E8" t="inlineStr"/>
-    </row>
-    <row r="9">
-      <c r="A9" s="1" t="n">
-        <v>7</v>
-      </c>
-      <c r="B9" t="inlineStr"/>
-      <c r="C9" t="inlineStr"/>
-      <c r="D9" t="inlineStr"/>
-      <c r="E9" t="inlineStr"/>
-    </row>
-    <row r="10">
-      <c r="A10" s="1" t="n">
-        <v>8</v>
-      </c>
-      <c r="B10" t="inlineStr"/>
-      <c r="C10" t="inlineStr"/>
-      <c r="D10" t="inlineStr"/>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>\</t>
-        </is>
+      <c r="B22" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A23" s="1">
+        <v>21</v>
+      </c>
+      <c r="B23" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A24" s="1">
+        <v>22</v>
+      </c>
+      <c r="B24" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A25" s="1">
+        <v>23</v>
+      </c>
+      <c r="B25" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A26" s="1">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A27" s="1">
+        <v>25</v>
+      </c>
+      <c r="B27" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A28" s="1">
+        <v>26</v>
+      </c>
+      <c r="B28" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A29" s="1">
+        <v>27</v>
+      </c>
+      <c r="B29" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A30" s="1">
+        <v>28</v>
+      </c>
+      <c r="B30" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A31" s="1">
+        <v>29</v>
+      </c>
+      <c r="B31" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A32" s="1">
+        <v>30</v>
+      </c>
+      <c r="B32" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A33" s="1">
+        <v>31</v>
+      </c>
+      <c r="B33" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A34" s="1">
+        <v>32</v>
+      </c>
+      <c r="B34" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A35" s="1">
+        <v>33</v>
+      </c>
+      <c r="B35" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A36" s="1">
+        <v>34</v>
+      </c>
+      <c r="B36" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A37" s="1">
+        <v>35</v>
+      </c>
+      <c r="B37" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A38" s="1">
+        <v>36</v>
+      </c>
+      <c r="B38" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A39" s="1">
+        <v>37</v>
+      </c>
+      <c r="B39" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A40" s="1">
+        <v>38</v>
+      </c>
+      <c r="B40" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A41" s="1">
+        <v>39</v>
+      </c>
+      <c r="B41" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A42" s="1">
+        <v>40</v>
+      </c>
+      <c r="B42" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A43" s="1">
+        <v>41</v>
+      </c>
+      <c r="B43" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A44" s="1">
+        <v>42</v>
+      </c>
+      <c r="B44" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A45" s="1">
+        <v>43</v>
+      </c>
+      <c r="B45" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A46" s="1">
+        <v>44</v>
+      </c>
+      <c r="B46" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A47" s="1">
+        <v>45</v>
+      </c>
+      <c r="B47" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A48" s="1">
+        <v>46</v>
+      </c>
+      <c r="B48" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A49" s="1">
+        <v>47</v>
+      </c>
+      <c r="B49" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A50" s="1">
+        <v>48</v>
+      </c>
+      <c r="B50" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A51" s="1">
+        <v>49</v>
+      </c>
+      <c r="B51" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A52" s="1">
+        <v>50</v>
+      </c>
+      <c r="B52" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A53" s="1">
+        <v>51</v>
+      </c>
+      <c r="B53" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A54" s="1">
+        <v>52</v>
+      </c>
+      <c r="B54" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A55" s="1">
+        <v>53</v>
+      </c>
+      <c r="B55" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A56" s="1">
+        <v>54</v>
+      </c>
+      <c r="B56" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A57" s="1">
+        <v>55</v>
+      </c>
+      <c r="B57" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A58" s="1">
+        <v>56</v>
+      </c>
+      <c r="B58" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A59" s="1">
+        <v>57</v>
+      </c>
+      <c r="B59" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A60" s="1">
+        <v>58</v>
+      </c>
+      <c r="B60" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A61" s="1">
+        <v>59</v>
+      </c>
+      <c r="B61" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A62" s="1">
+        <v>60</v>
+      </c>
+      <c r="B62" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A63" s="1">
+        <v>61</v>
+      </c>
+      <c r="B63" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A64" s="1">
+        <v>62</v>
+      </c>
+      <c r="B64" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A65" s="1">
+        <v>63</v>
+      </c>
+      <c r="B65" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A66" s="1">
+        <v>64</v>
+      </c>
+      <c r="B66" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A67" s="1">
+        <v>65</v>
+      </c>
+      <c r="B67" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A68" s="1">
+        <v>66</v>
+      </c>
+      <c r="B68" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A69" s="1">
+        <v>67</v>
+      </c>
+      <c r="B69" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A70" s="1">
+        <v>68</v>
+      </c>
+      <c r="B70" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A71" s="1">
+        <v>69</v>
+      </c>
+      <c r="B71" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A72" s="1">
+        <v>70</v>
+      </c>
+      <c r="B72" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A73" s="1">
+        <v>71</v>
+      </c>
+      <c r="B73" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A74" s="1">
+        <v>72</v>
+      </c>
+      <c r="B74" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A75" s="1">
+        <v>73</v>
+      </c>
+      <c r="B75" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="76" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A76" s="1">
+        <v>74</v>
+      </c>
+      <c r="B76" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="77" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A77" s="1">
+        <v>75</v>
+      </c>
+      <c r="B77" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="78" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A78" s="1">
+        <v>76</v>
+      </c>
+      <c r="B78" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="79" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A79" s="1">
+        <v>77</v>
+      </c>
+      <c r="B79" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="80" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A80" s="1">
+        <v>78</v>
+      </c>
+      <c r="B80" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="81" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A81" s="1">
+        <v>79</v>
+      </c>
+      <c r="B81" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="82" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A82" s="1">
+        <v>80</v>
+      </c>
+      <c r="B82" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="83" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A83" s="1">
+        <v>81</v>
+      </c>
+      <c r="B83" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="84" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A84" s="1">
+        <v>82</v>
+      </c>
+      <c r="B84" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="85" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A85" s="1">
+        <v>83</v>
+      </c>
+      <c r="B85" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="86" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A86" s="1">
+        <v>84</v>
+      </c>
+      <c r="B86" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="87" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A87" s="1">
+        <v>85</v>
+      </c>
+      <c r="B87" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="88" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A88" s="1">
+        <v>86</v>
+      </c>
+      <c r="B88" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="89" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A89" s="1">
+        <v>87</v>
+      </c>
+      <c r="B89" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="90" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A90" s="1">
+        <v>88</v>
+      </c>
+      <c r="B90" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="91" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A91" s="1">
+        <v>89</v>
+      </c>
+      <c r="B91" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="92" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A92" s="1">
+        <v>90</v>
+      </c>
+      <c r="B92" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="93" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A93" s="1">
+        <v>91</v>
+      </c>
+      <c r="B93" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="94" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A94" s="1">
+        <v>92</v>
+      </c>
+      <c r="B94" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="95" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A95" s="1">
+        <v>93</v>
+      </c>
+      <c r="B95" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="96" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A96" s="1">
+        <v>94</v>
+      </c>
+      <c r="B96" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="97" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A97" s="1">
+        <v>95</v>
+      </c>
+      <c r="B97" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="98" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A98" s="1">
+        <v>96</v>
+      </c>
+      <c r="B98" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="99" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A99" s="1">
+        <v>97</v>
+      </c>
+      <c r="B99" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="100" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A100" s="1">
+        <v>98</v>
+      </c>
+      <c r="B100" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="101" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A101" s="1">
+        <v>99</v>
+      </c>
+      <c r="B101" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="102" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A102" s="1">
+        <v>100</v>
+      </c>
+      <c r="B102" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="103" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A103" s="1">
+        <v>101</v>
+      </c>
+      <c r="B103" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="104" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A104" s="1">
+        <v>102</v>
+      </c>
+      <c r="B104" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="105" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A105" s="1">
+        <v>103</v>
+      </c>
+      <c r="B105" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="106" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A106" s="1">
+        <v>104</v>
+      </c>
+      <c r="B106" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="107" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A107" s="1">
+        <v>105</v>
+      </c>
+      <c r="B107" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="108" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A108" s="1">
+        <v>106</v>
+      </c>
+      <c r="B108" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="109" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A109" s="1">
+        <v>107</v>
+      </c>
+      <c r="B109" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="110" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A110" s="1">
+        <v>108</v>
+      </c>
+      <c r="B110" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="111" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A111" s="1">
+        <v>109</v>
+      </c>
+      <c r="B111" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="112" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A112" s="1">
+        <v>110</v>
+      </c>
+      <c r="B112" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="113" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A113" s="1">
+        <v>111</v>
+      </c>
+      <c r="B113" t="s">
+        <v>111</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>